--- a/Design/Testing/Login Page Test.xlsx
+++ b/Design/Testing/Login Page Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A2FD8-3306-47B4-9BA4-40594796F33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A9D4B-6752-43C6-9871-9C0636438CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,8 @@
     <col min="3" max="4" width="41.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="8" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>

--- a/Design/Testing/Login Page Test.xlsx
+++ b/Design/Testing/Login Page Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A9D4B-6752-43C6-9871-9C0636438CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FB036-71E1-4167-8920-267E73331212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,20 +713,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
